--- a/biology/Zoologie/Capucin_nonnette/Capucin_nonnette.xlsx
+++ b/biology/Zoologie/Capucin_nonnette/Capucin_nonnette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermestes cucullata
-Le Capucin nonnette (Spermestes cucullata) (ex Lonchura cucullata) est une espèce de passereau appartenant à la famille des Estrildidae[1]. Il est parfois appelé Spermète à capuchon ou Nonnette ordinaire.
+Le Capucin nonnette (Spermestes cucullata) (ex Lonchura cucullata) est une espèce de passereau appartenant à la famille des Estrildidae. Il est parfois appelé Spermète à capuchon ou Nonnette ordinaire.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description et éléments associés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un tout petit oiseau d’une dizaine de centimètres de long et d'environ 10 grammes[2],[3]. Chez l’adulte, le front, la nuque, la face, les côtés du cou et le menton sont noirs à noir brunâtre[2],[3],[4],[5]. La couleur noire s'étend jusqu'au milieu de la poitrine, formant une sorte de bavette[3]. Le dos est couleur bronze, les sous-caudales et le croupion barrés ainsi que le bec bicolore noir et gris-bleu[4]. Il n'y a pas vraiment de dimorphisme sexuel. Les juvéniles sont brun terne uni à bec foncé[2], et ils se trouvent presque toujours en compagnie des adultes[4]. Ces oiseaux émettent des vocalisations rapides, bourdonnantes et grinçantes en djip ou chip ou chikk, parfois répétées sous la forme d’un gazouillis rapide[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un tout petit oiseau d’une dizaine de centimètres de long et d'environ 10 grammes,. Chez l’adulte, le front, la nuque, la face, les côtés du cou et le menton sont noirs à noir brunâtre. La couleur noire s'étend jusqu'au milieu de la poitrine, formant une sorte de bavette. Le dos est couleur bronze, les sous-caudales et le croupion barrés ainsi que le bec bicolore noir et gris-bleu. Il n'y a pas vraiment de dimorphisme sexuel. Les juvéniles sont brun terne uni à bec foncé, et ils se trouvent presque toujours en compagnie des adultes. Ces oiseaux émettent des vocalisations rapides, bourdonnantes et grinçantes en djip ou chip ou chikk, parfois répétées sous la forme d’un gazouillis rapide,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aire du capucin nonnette englobe une grande partie de l'Afrique subsaharienne, rapidement à la suite du désert : jusqu’environ à la moitié du Burkina-Faso, et jusqu’en Centrafrique[2],[3],[4]. Cette espèce est grégaire et apprécie une large gamme d’environnements ouverts à semi-ouverts, surtout à proximité de forêts[3]. Elle vit volontiers à proximité des installations humaines, et se rapproche des zones que l'Homme défriche. C'est pour cela qu'elle est relativement courante dans les friches, les zones cultivées et les pâturages entretenus. Elle peuple également Zanzibar (dont Mafia et Pemba), les Comores et quelques îles du Golfe de Guinée ainsi que le Sénégal. On la retrouve aussi dans quelques zones d'Amérique du Nord et à Singapour.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aire du capucin nonnette englobe une grande partie de l'Afrique subsaharienne, rapidement à la suite du désert : jusqu’environ à la moitié du Burkina-Faso, et jusqu’en Centrafrique. Cette espèce est grégaire et apprécie une large gamme d’environnements ouverts à semi-ouverts, surtout à proximité de forêts. Elle vit volontiers à proximité des installations humaines, et se rapproche des zones que l'Homme défriche. C'est pour cela qu'elle est relativement courante dans les friches, les zones cultivées et les pâturages entretenus. Elle peuple également Zanzibar (dont Mafia et Pemba), les Comores et quelques îles du Golfe de Guinée ainsi que le Sénégal. On la retrouve aussi dans quelques zones d'Amérique du Nord et à Singapour.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021 l'UICN considère l'espèce comme de préoccupation mineure (LC)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021 l'UICN considère l'espèce comme de préoccupation mineure (LC).
 </t>
         </is>
       </c>
